--- a/Data/BACKUP/Master.xlsx
+++ b/Data/BACKUP/Master.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr\Data\BACKUP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C9AD61-7168-40C0-B06C-437B86C7A355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E85D188-C187-408F-80CB-BD98A6BBD75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1360,8 +1360,8 @@
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14:F96"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7265625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1717,7 +1717,9 @@
       <c r="E14" s="4">
         <v>13</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="G14" s="16" t="s">
         <v>197</v>
       </c>
@@ -3799,9 +3801,7 @@
       <c r="E97" s="4">
         <v>96</v>
       </c>
-      <c r="F97" s="12" t="s">
-        <v>180</v>
-      </c>
+      <c r="F97" s="12"/>
       <c r="G97" s="16" t="s">
         <v>202</v>
       </c>
